--- a/Vtiger/data/TestData.xlsx
+++ b/Vtiger/data/TestData.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5208"/>
+    <workbookView windowHeight="8004" windowWidth="22464" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="org" sheetId="1" r:id="rId1"/>
+    <sheet name="org" r:id="rId1" sheetId="1"/>
+    <sheet name="PurchaseOrder" r:id="rId2" sheetId="4"/>
+    <sheet name="Contact" r:id="rId3" sheetId="2"/>
+    <sheet name="Data" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>TestId</t>
   </si>
@@ -32,9 +35,6 @@
     <t>Creatorg</t>
   </si>
   <si>
-    <t>Ty_org</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
@@ -47,13 +47,146 @@
     <t>CreateContact</t>
   </si>
   <si>
-    <t>Autocad</t>
+    <t>tc_03</t>
+  </si>
+  <si>
+    <t>Org_With_Contact</t>
+  </si>
+  <si>
+    <t>AutoDesk</t>
+  </si>
+  <si>
+    <t>Test_ID</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Tc_01</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>CreatContact</t>
+  </si>
+  <si>
+    <t>Autodesk</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Press</t>
+  </si>
+  <si>
+    <t>blue dart</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>Shipping Address</t>
+  </si>
+  <si>
+    <t>banglore</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Laptop Service</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Hp Laptop</t>
+  </si>
+  <si>
+    <t>Pen Drive</t>
+  </si>
+  <si>
+    <t>data182</t>
+  </si>
+  <si>
+    <t>data181</t>
+  </si>
+  <si>
+    <t>data389</t>
+  </si>
+  <si>
+    <t>data763</t>
+  </si>
+  <si>
+    <t>data986</t>
+  </si>
+  <si>
+    <t>data847</t>
+  </si>
+  <si>
+    <t>data187</t>
+  </si>
+  <si>
+    <t>data989</t>
+  </si>
+  <si>
+    <t>data618</t>
+  </si>
+  <si>
+    <t>data201</t>
+  </si>
+  <si>
+    <t>data428</t>
+  </si>
+  <si>
+    <t>data290</t>
+  </si>
+  <si>
+    <t>data614</t>
+  </si>
+  <si>
+    <t>data516</t>
+  </si>
+  <si>
+    <t>data325</t>
+  </si>
+  <si>
+    <t>Aa</t>
+  </si>
+  <si>
+    <t>Bb</t>
+  </si>
+  <si>
+    <t>Cc</t>
+  </si>
+  <si>
+    <t>TestNo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,16 +214,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -107,10 +240,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -145,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,7 +313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,7 +401,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -277,13 +410,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -293,7 +426,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -302,7 +435,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -311,7 +444,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -321,12 +454,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -357,7 +490,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -376,7 +509,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -388,64 +521,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>